--- a/LWD_NMR_DSP/数据空间分配.xlsx
+++ b/LWD_NMR_DSP/数据空间分配.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4BEDD-97A1-45A1-8CF3-3BAAC5D9C29C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2D920-21B4-4D91-ACD1-A92AC50A2D87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="185">
   <si>
     <t>变量</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -518,6 +518,178 @@
   </si>
   <si>
     <t>参数表长度+刻度表Length字段+CheckSum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16进制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0013</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>128E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>003C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0030</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0087</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0064</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0050</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>003B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0039</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12F2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>003C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0087</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03E8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0060</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0708</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0047</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32C8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2AF8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2710</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1770</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,6 +856,18 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,13 +900,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>357526</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>18724</xdr:rowOff>
@@ -760,13 +944,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>319521</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>18709</xdr:rowOff>
@@ -1068,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1079,23 +1263,24 @@
     <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1108,17 +1293,20 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>32768</v>
       </c>
@@ -1132,13 +1320,16 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>32769</v>
       </c>
@@ -1152,13 +1343,16 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>32770</v>
       </c>
@@ -1172,15 +1366,18 @@
       <c r="D5" s="2">
         <v>21</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>32771</v>
       </c>
@@ -1194,15 +1391,18 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>32772</v>
       </c>
@@ -1216,13 +1416,16 @@
       <c r="D7" s="2">
         <v>19</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>32773</v>
       </c>
@@ -1236,13 +1439,16 @@
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>32774</v>
       </c>
@@ -1256,13 +1462,16 @@
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>32775</v>
       </c>
@@ -1276,15 +1485,18 @@
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>32776</v>
       </c>
@@ -1298,15 +1510,18 @@
       <c r="D11" s="2">
         <v>4750</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>32777</v>
       </c>
@@ -1320,15 +1535,18 @@
       <c r="D12" s="2">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>32778</v>
       </c>
@@ -1342,15 +1560,18 @@
       <c r="D13" s="2">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>32779</v>
       </c>
@@ -1364,15 +1585,18 @@
       <c r="D14" s="2">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>32780</v>
       </c>
@@ -1386,15 +1610,18 @@
       <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>32781</v>
       </c>
@@ -1408,15 +1635,18 @@
       <c r="D16" s="2">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>32782</v>
       </c>
@@ -1430,15 +1660,18 @@
       <c r="D17" s="2">
         <v>135</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>32783</v>
       </c>
@@ -1452,15 +1685,18 @@
       <c r="D18" s="2">
         <v>16</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>32784</v>
       </c>
@@ -1474,15 +1710,18 @@
       <c r="D19" s="2">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>32785</v>
       </c>
@@ -1496,15 +1735,18 @@
       <c r="D20" s="2">
         <v>23</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>32786</v>
       </c>
@@ -1518,15 +1760,18 @@
       <c r="D21" s="12">
         <v>10</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>32787</v>
       </c>
@@ -1540,15 +1785,18 @@
       <c r="D22" s="2">
         <v>60</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>32788</v>
       </c>
@@ -1562,15 +1810,18 @@
       <c r="D23" s="2">
         <v>100</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>32789</v>
       </c>
@@ -1584,15 +1835,18 @@
       <c r="D24" s="2">
         <v>80</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>32790</v>
       </c>
@@ -1604,13 +1858,14 @@
         <v>126</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>32791</v>
       </c>
@@ -1624,15 +1879,18 @@
       <c r="D26" s="2">
         <v>59</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>32792</v>
       </c>
@@ -1646,15 +1904,18 @@
       <c r="D27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>32793</v>
       </c>
@@ -1668,13 +1929,16 @@
       <c r="D28" s="5">
         <v>57</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>32794</v>
       </c>
@@ -1688,13 +1952,16 @@
       <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>32795</v>
       </c>
@@ -1708,13 +1975,16 @@
       <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>32796</v>
       </c>
@@ -1728,15 +1998,18 @@
       <c r="D31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="H31" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>32797</v>
       </c>
@@ -1750,15 +2023,18 @@
       <c r="D32" s="5">
         <v>4850</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32798</v>
       </c>
@@ -1772,15 +2048,18 @@
       <c r="D33" s="5">
         <v>50</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32799</v>
       </c>
@@ -1794,15 +2073,18 @@
       <c r="D34" s="2">
         <v>60</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32800</v>
       </c>
@@ -1816,15 +2098,18 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32801</v>
       </c>
@@ -1838,15 +2123,18 @@
       <c r="D36" s="2">
         <v>135</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32802</v>
       </c>
@@ -1860,15 +2148,18 @@
       <c r="D37" s="2">
         <v>16</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>32803</v>
       </c>
@@ -1882,13 +2173,16 @@
       <c r="D38" s="2">
         <v>8</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>32804</v>
       </c>
@@ -1902,15 +2196,18 @@
       <c r="D39" s="2">
         <v>23</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>32805</v>
       </c>
@@ -1924,17 +2221,20 @@
       <c r="D40" s="2">
         <v>10</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="H40" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>32806</v>
       </c>
@@ -1948,13 +2248,16 @@
       <c r="D41" s="2">
         <v>6</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>32807</v>
       </c>
@@ -1968,13 +2271,16 @@
       <c r="D42" s="2">
         <v>1000</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>32808</v>
       </c>
@@ -1988,17 +2294,20 @@
       <c r="D43" s="5">
         <v>17</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="H43" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>32809</v>
       </c>
@@ -2012,15 +2321,18 @@
       <c r="D44" s="5">
         <v>30</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>32810</v>
       </c>
@@ -2034,15 +2346,18 @@
       <c r="D45" s="5">
         <v>6</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>32811</v>
       </c>
@@ -2056,15 +2371,18 @@
       <c r="D46" s="5">
         <v>6</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>32812</v>
       </c>
@@ -2078,15 +2396,18 @@
       <c r="D47" s="5">
         <v>1000</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>32813</v>
       </c>
@@ -2100,15 +2421,18 @@
       <c r="D48" s="5">
         <v>50</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>32814</v>
       </c>
@@ -2122,15 +2446,18 @@
       <c r="D49" s="5">
         <v>96</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>32815</v>
       </c>
@@ -2144,17 +2471,20 @@
       <c r="D50" s="5">
         <v>17</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="H50" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>32816</v>
       </c>
@@ -2168,15 +2498,18 @@
       <c r="D51" s="5">
         <v>30</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>32817</v>
       </c>
@@ -2190,15 +2523,18 @@
       <c r="D52" s="5">
         <v>1800</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>32818</v>
       </c>
@@ -2212,15 +2548,18 @@
       <c r="D53" s="5">
         <v>6</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>32819</v>
       </c>
@@ -2234,15 +2573,18 @@
       <c r="D54" s="5">
         <v>6</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>32820</v>
       </c>
@@ -2256,15 +2598,18 @@
       <c r="D55" s="5">
         <v>1000</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>32821</v>
       </c>
@@ -2278,15 +2623,18 @@
       <c r="D56" s="5">
         <v>50</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>32822</v>
       </c>
@@ -2300,15 +2648,18 @@
       <c r="D57" s="5">
         <v>25</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>32823</v>
       </c>
@@ -2322,17 +2673,20 @@
       <c r="D58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="H58" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>32824</v>
       </c>
@@ -2346,15 +2700,18 @@
       <c r="D59" s="5">
         <v>40</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>32825</v>
       </c>
@@ -2368,15 +2725,18 @@
       <c r="D60" s="5">
         <v>2</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>32826</v>
       </c>
@@ -2390,15 +2750,18 @@
       <c r="D61" s="5">
         <v>6</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>32827</v>
       </c>
@@ -2412,15 +2775,18 @@
       <c r="D62" s="5">
         <v>6</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>32828</v>
       </c>
@@ -2434,15 +2800,18 @@
       <c r="D63" s="5">
         <v>1000</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>32829</v>
       </c>
@@ -2456,15 +2825,18 @@
       <c r="D64" s="5">
         <v>50</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>32830</v>
       </c>
@@ -2478,15 +2850,18 @@
       <c r="D65" s="5">
         <v>16</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>32831</v>
       </c>
@@ -2500,15 +2875,18 @@
       <c r="D66" s="5">
         <v>50</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>32832</v>
       </c>
@@ -2522,17 +2900,20 @@
       <c r="D67" s="5">
         <v>71</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="H67" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>32833</v>
       </c>
@@ -2546,15 +2927,18 @@
       <c r="D68" s="5">
         <v>40</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>32834</v>
       </c>
@@ -2568,15 +2952,18 @@
       <c r="D69" s="5">
         <v>13000</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>32835</v>
       </c>
@@ -2590,15 +2977,18 @@
       <c r="D70" s="5">
         <v>11000</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>32836</v>
       </c>
@@ -2612,15 +3002,18 @@
       <c r="D71" s="5">
         <v>10000</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>32837</v>
       </c>
@@ -2634,15 +3027,18 @@
       <c r="D72" s="5">
         <v>8000</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>32838</v>
       </c>
@@ -2656,15 +3052,18 @@
       <c r="D73" s="5">
         <v>6000</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>32839</v>
       </c>
@@ -2678,15 +3077,18 @@
       <c r="D74" s="5">
         <v>6</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>32840</v>
       </c>
@@ -2700,15 +3102,18 @@
       <c r="D75" s="5">
         <v>6</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>32841</v>
       </c>
@@ -2722,15 +3127,18 @@
       <c r="D76" s="5">
         <v>50</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>32842</v>
       </c>
@@ -2744,17 +3152,20 @@
       <c r="D77" s="5">
         <v>6</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="H77" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>32843</v>
       </c>
@@ -2768,15 +3179,18 @@
       <c r="D78" s="5">
         <v>40</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>32844</v>
       </c>
@@ -2790,15 +3204,18 @@
       <c r="D79" s="5">
         <v>6</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G79" s="13"/>
-    </row>
-    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>32845</v>
       </c>
@@ -2812,15 +3229,18 @@
       <c r="D80" s="5">
         <v>6</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>32846</v>
       </c>
@@ -2834,15 +3254,18 @@
       <c r="D81" s="5">
         <v>1000</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G81" s="13"/>
-    </row>
-    <row r="82" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>32847</v>
       </c>
@@ -2856,18 +3279,21 @@
       <c r="D82" s="5">
         <v>50</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="O82" t="s">
+      <c r="H82" s="17"/>
+      <c r="P82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>32848</v>
       </c>
@@ -2881,15 +3307,18 @@
       <c r="D83" s="5">
         <v>50</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>32849</v>
       </c>
@@ -2901,13 +3330,14 @@
         <v>126</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="2"/>
+      <c r="H84" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2915,8 +3345,9 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2924,8 +3355,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2933,8 +3365,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2942,8 +3375,9 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2951,8 +3385,9 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2960,21 +3395,22 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G10:G24"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="G50:G57"/>
-    <mergeCell ref="G58:G66"/>
-    <mergeCell ref="G67:G76"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H10:H24"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="H50:H57"/>
+    <mergeCell ref="H58:H66"/>
+    <mergeCell ref="H67:H76"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LWD_NMR_DSP/数据空间分配.xlsx
+++ b/LWD_NMR_DSP/数据空间分配.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2D920-21B4-4D91-ACD1-A92AC50A2D87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30686F2C-3FEE-42DA-8FAC-C57CEE5C4036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,6 +866,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1254,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1269,16 +1272,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1327,7 +1330,7 @@
       <c r="G3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1350,14 +1353,14 @@
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>32770</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B23" si="0">DEC2HEX(A5)</f>
+        <f t="shared" ref="B5:B25" si="0">DEC2HEX(A5)</f>
         <v>8002</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1398,7 +1401,7 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1423,7 +1426,7 @@
       <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1446,7 +1449,7 @@
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1469,7 +1472,7 @@
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1492,7 +1495,7 @@
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1519,7 +1522,7 @@
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1544,7 +1547,7 @@
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1569,7 +1572,7 @@
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1594,7 +1597,7 @@
       <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1619,7 +1622,7 @@
       <c r="G15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1644,7 +1647,7 @@
       <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1669,7 +1672,7 @@
       <c r="G17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1694,7 +1697,7 @@
       <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1719,7 +1722,7 @@
       <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1744,7 +1747,7 @@
       <c r="G20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1769,7 +1772,7 @@
       <c r="G21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1794,7 +1797,7 @@
       <c r="G22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1819,7 +1822,7 @@
       <c r="G23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1844,14 +1847,14 @@
       <c r="G24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>32790</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B25" s="17" t="str">
+        <f t="shared" si="0"/>
         <v>8016</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1911,7 +1914,7 @@
       <c r="G27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1936,7 +1939,7 @@
       <c r="G28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -1959,7 +1962,7 @@
       <c r="G29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1982,7 +1985,7 @@
       <c r="G30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -2005,7 +2008,7 @@
       <c r="G31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2032,7 +2035,7 @@
       <c r="G32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2057,7 +2060,7 @@
       <c r="G33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -2082,7 +2085,7 @@
       <c r="G34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2107,7 +2110,7 @@
       <c r="G35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -2132,7 +2135,7 @@
       <c r="G36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -2157,7 +2160,7 @@
       <c r="G37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -2180,7 +2183,7 @@
       <c r="G38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="17"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -2205,7 +2208,7 @@
       <c r="G39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -2230,7 +2233,7 @@
       <c r="G40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2255,7 +2258,7 @@
         <v>81</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="17"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2278,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="17"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -2303,7 +2306,7 @@
       <c r="G43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2330,7 +2333,7 @@
       <c r="G44" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -2355,7 +2358,7 @@
       <c r="G45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="17"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -2380,7 +2383,7 @@
       <c r="G46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -2405,7 +2408,7 @@
       <c r="G47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="17"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -2430,7 +2433,7 @@
       <c r="G48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="17"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -2455,7 +2458,7 @@
       <c r="G49" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H49" s="17"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2480,7 +2483,7 @@
       <c r="G50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2507,7 +2510,7 @@
       <c r="G51" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H51" s="17"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -2532,7 +2535,7 @@
       <c r="G52" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H52" s="17"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -2557,7 +2560,7 @@
       <c r="G53" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H53" s="17"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -2582,7 +2585,7 @@
       <c r="G54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H54" s="17"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2607,7 +2610,7 @@
       <c r="G55" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H55" s="17"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -2632,7 +2635,7 @@
       <c r="G56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H56" s="17"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -2657,7 +2660,7 @@
       <c r="G57" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H57" s="17"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -2682,7 +2685,7 @@
       <c r="G58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2709,7 +2712,7 @@
       <c r="G59" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="17"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -2734,7 +2737,7 @@
       <c r="G60" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -2759,7 +2762,7 @@
       <c r="G61" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2784,7 +2787,7 @@
       <c r="G62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="17"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -2809,7 +2812,7 @@
       <c r="G63" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -2834,7 +2837,7 @@
       <c r="G64" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H64" s="17"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -2859,7 +2862,7 @@
       <c r="G65" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H65" s="17"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -2884,7 +2887,7 @@
       <c r="G66" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="17"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -2909,7 +2912,7 @@
       <c r="G67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="17" t="s">
+      <c r="H67" s="18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2936,7 +2939,7 @@
       <c r="G68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -2961,7 +2964,7 @@
       <c r="G69" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H69" s="17"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -2986,7 +2989,7 @@
       <c r="G70" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H70" s="17"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -3011,7 +3014,7 @@
       <c r="G71" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H71" s="17"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -3036,7 +3039,7 @@
       <c r="G72" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="17"/>
+      <c r="H72" s="18"/>
     </row>
     <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -3061,7 +3064,7 @@
       <c r="G73" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H73" s="17"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -3086,7 +3089,7 @@
       <c r="G74" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H74" s="17"/>
+      <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -3111,7 +3114,7 @@
       <c r="G75" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H75" s="17"/>
+      <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -3136,7 +3139,7 @@
       <c r="G76" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H76" s="17"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -3161,7 +3164,7 @@
       <c r="G77" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3188,7 +3191,7 @@
       <c r="G78" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="18"/>
     </row>
     <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3213,7 +3216,7 @@
       <c r="G79" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H79" s="17"/>
+      <c r="H79" s="18"/>
     </row>
     <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -3238,7 +3241,7 @@
       <c r="G80" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H80" s="17"/>
+      <c r="H80" s="18"/>
     </row>
     <row r="81" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
@@ -3263,7 +3266,7 @@
       <c r="G81" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H81" s="17"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
@@ -3288,7 +3291,7 @@
       <c r="G82" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H82" s="17"/>
+      <c r="H82" s="18"/>
       <c r="P82" t="s">
         <v>128</v>
       </c>
@@ -3316,7 +3319,7 @@
       <c r="G83" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H83" s="17"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
